--- a/data/trans_orig/P14C98-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C91A84-53C1-4AE4-B4B3-AB5B07F9B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFCA4B4-7828-47DE-85CD-867F77070E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73205278-7762-47DC-949B-A6198122A544}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AD86F52-3DE3-4006-A666-22DD8A6A1869}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="69">
   <si>
     <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
   </si>
@@ -170,7 +170,7 @@
     <t>62,57%</t>
   </si>
   <si>
-    <t>18,38%</t>
+    <t>18,4%</t>
   </si>
   <si>
     <t>26,65%</t>
@@ -182,58 +182,55 @@
     <t>37,43%</t>
   </si>
   <si>
-    <t>81,62%</t>
+    <t>81,6%</t>
   </si>
   <si>
     <t>75,52%</t>
   </si>
   <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>41,19%</t>
+    <t>46,5%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>42,96%</t>
-  </si>
-  <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>53,5%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -242,7 +239,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -657,7 +654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57ED076-41C5-45FF-A148-28367E59CD51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E8BB83-9EA9-431D-8058-626AE6A0F2D7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2438,7 +2435,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -2447,13 +2444,13 @@
         <v>2151</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2462,13 +2459,13 @@
         <v>4221</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,28 +2480,28 @@
         <v>1084</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2513,13 +2510,13 @@
         <v>1084</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2572,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C98-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C98-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FFCA4B4-7828-47DE-85CD-867F77070E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{328EC15A-FD2C-40A8-960B-51C70EF798EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0AD86F52-3DE3-4006-A666-22DD8A6A1869}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC649041-C9F9-41EC-8637-EBAB98727542}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="69">
-  <si>
-    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="70">
+  <si>
+    <t>Población según el tiempo de diagnóstico de la enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -188,49 +188,52 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>80,12%</t>
   </si>
   <si>
-    <t>46,5%</t>
+    <t>36,96%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
+    <t>42,66%</t>
+  </si>
+  <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>53,5%</t>
+    <t>63,04%</t>
   </si>
   <si>
     <t>17,81%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
+    <t>39,94%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -239,7 +242,7 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -654,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E8BB83-9EA9-431D-8058-626AE6A0F2D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2CD782-9B2A-4063-8135-EFE0B6C6CF9D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2435,7 +2438,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -2444,13 +2447,13 @@
         <v>2151</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -2459,13 +2462,13 @@
         <v>4221</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2483,13 @@
         <v>1084</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2501,7 +2504,7 @@
         <v>17</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -2510,13 +2513,13 @@
         <v>1084</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,7 +2575,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
